--- a/curso js.xlsx
+++ b/curso js.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/wallace_b_silva_capgemini_com/Documents/Desktop/projetos curso Js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC1048A691DD4BC25ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE73112-6BFE-4A4A-A7C0-C1D8172CA01B}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC1048A691DD4BC25ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0EF1CC-07A5-4B4D-8186-D9664B2C87E8}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2400" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="7110" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Operadores</t>
   </si>
@@ -112,6 +112,22 @@
   </si>
   <si>
     <t>criar repositorio no git</t>
+  </si>
+  <si>
+    <t>arquivos .env</t>
+  </si>
+  <si>
+    <t>{user: admin
+senha:*****}</t>
+  </si>
+  <si>
+    <t>senha no arquivo</t>
+  </si>
+  <si>
+    <t>gitignore</t>
+  </si>
+  <si>
+    <t>/ o nome do arquivo q deseja não enviar para o git</t>
   </si>
 </sst>
 </file>
@@ -147,10 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +594,19 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -589,6 +617,14 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/curso js.xlsx
+++ b/curso js.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/wallace_b_silva_capgemini_com/Documents/Desktop/projetos curso Js/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallasil\projetos_curso_Js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC1048A691DD4BC25ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0EF1CC-07A5-4B4D-8186-D9664B2C87E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59A057-F472-48FA-B834-242B63EC42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="7110" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="3750" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Operadores</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>/ o nome do arquivo q deseja não enviar para o git</t>
+  </si>
+  <si>
+    <t>git remote add origin</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +630,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/curso js.xlsx
+++ b/curso js.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallasil\projetos_curso_Js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59A057-F472-48FA-B834-242B63EC42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C24421-BCC4-47C0-AEAA-D5B79FCBDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3750" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13290" yWindow="2265" windowWidth="14160" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Operadores</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>git remote add origin</t>
+  </si>
+  <si>
+    <t>git branch -m branch3</t>
+  </si>
+  <si>
+    <t>criou</t>
+  </si>
+  <si>
+    <t>git commit -m "teste"</t>
+  </si>
+  <si>
+    <t>git push origin branch3</t>
+  </si>
+  <si>
+    <t>git checkout main</t>
+  </si>
+  <si>
+    <t>git merge origin/branch3</t>
+  </si>
+  <si>
+    <t>nova branch- fazendo merge</t>
   </si>
 </sst>
 </file>
@@ -454,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +651,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/curso js.xlsx
+++ b/curso js.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallasil\projetos_curso_Js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C24421-BCC4-47C0-AEAA-D5B79FCBDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00033A-8151-489F-A458-60D1D922B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13290" yWindow="2265" windowWidth="14160" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Operadores</t>
   </si>
@@ -152,19 +152,28 @@
   </si>
   <si>
     <t>nova branch- fazendo merge</t>
+  </si>
+  <si>
+    <t>"git config --global http.sslVerify false"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,17 +192,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +736,15 @@
         <v>13</v>
       </c>
     </row>
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="6:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/curso js.xlsx
+++ b/curso js.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallasil\projetos_curso_Js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00033A-8151-489F-A458-60D1D922B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0475B083-3916-4A8B-9DD8-1860E5A09FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13290" yWindow="2265" windowWidth="14160" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
